--- a/TimingData.xlsx
+++ b/TimingData.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilija\Desktop\2019 Sem 2\CITS3402 - High Performance Computing\CITS3402_HPC_Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/localadmin/Desktop/Desktop/CITS3402_HPC_Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{94FCF113-0731-403B-B241-056B21781C5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-36500" yWindow="-1180" windowWidth="36500" windowHeight="20040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>SEQUENTIAL ALGORITHM TIMING</t>
   </si>
@@ -104,16 +100,28 @@
   <si>
     <t>Speedup OLD for 4 processors</t>
   </si>
+  <si>
+    <t>PLOTTING</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Fast MPI</t>
+  </si>
+  <si>
+    <t>Slow MPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +156,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,21 +216,26 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -217,12 +246,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -236,22 +259,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
@@ -287,7 +327,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -326,6 +365,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -339,15 +384,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -356,10 +398,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -377,23 +415,4028 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing Time Complexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0004752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9762544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1267404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.69271079999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524.43165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0008602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.769881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.382860799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.3862396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327.1715238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Slow MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$7:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0011142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9196324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.6851168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.5967176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2011003248"/>
+        <c:axId val="2010998736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2011003248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010998736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2010998736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011003248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Time Complexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.553568358933593"/>
+                  <c:y val="-0.109506612438582"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$26:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$27:$W$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-11.03917754341077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0346709493598902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.022676809652442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.18373880126166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.034610946120361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.242057273146908"/>
+                  <c:y val="-0.104913259779411"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$26:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$28:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-10.18304024826689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.377292628271342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.428373117955096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.335791916516566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.35390337491157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Slow MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.105802313578245"/>
+                  <c:y val="-0.104913259779411"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$26:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$29:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.80977606355496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.940830068513093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.774535842784362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.543779797915881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2013018672"/>
+        <c:axId val="2013159232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2013018672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013159232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2013159232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+          <c:min val="-11.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013018672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.162696887183152"/>
+          <c:w val="1.0"/>
+          <c:h val="0.16116520224808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> More Processors for 2048 Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$49:$V$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$50:$V$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>158.8859544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.3561696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.3862396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.4589514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0164084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Slow MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$49:$V$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$51:$V$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>186.5967176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.6165285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.869231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2005714928"/>
+        <c:axId val="2006852288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2005714928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006852288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2006852288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005714928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>599723</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>430390</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66323</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>410883</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276413</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>874889</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Speedup1" displayName="Speedup1" ref="K3:N8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Speedup1" displayName="Speedup1" ref="K3:N8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="K3:N8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Number of processes" dataDxfId="23"/>
-    <tableColumn id="2" name="Time (s)" dataDxfId="18"/>
+    <tableColumn id="1" name="Number of processes" dataDxfId="21"/>
+    <tableColumn id="2" name="Time (s)" dataDxfId="20"/>
     <tableColumn id="3" name="Speedup" dataDxfId="19">
       <calculatedColumnFormula>$E$10/L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Efficiency (%)" dataDxfId="20">
+    <tableColumn id="4" name="Efficiency (%)" dataDxfId="18">
       <calculatedColumnFormula>M4/K4*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -402,10 +4445,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="K12:N17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="K12:N17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="K12:N17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Number of vertices" dataDxfId="17"/>
+    <tableColumn id="1" name="Number of vertices" dataDxfId="15"/>
     <tableColumn id="2" name="Sequential time (s)" dataDxfId="14"/>
     <tableColumn id="3" name="Parallel time (s)" dataDxfId="13"/>
     <tableColumn id="4" name="Speedup " dataDxfId="12">
@@ -745,32 +4788,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O57"/>
+  <dimension ref="A2:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="76" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.9296875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.1328125" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="K2" s="22" t="s">
         <v>16</v>
       </c>
@@ -778,258 +4821,327 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="K3" s="16" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="K3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
         <v>32</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>512</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1024</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2048</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>4096</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <f>$B$26</f>
         <v>158.8859544</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="15">
         <f>$E$10/L4</f>
         <v>0.45751502122707444</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <f>M4/K4*100</f>
         <v>45.751502122707443</v>
       </c>
+      <c r="S4" s="4">
+        <v>32</v>
+      </c>
+      <c r="T4" s="4">
+        <v>512</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1024</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2048</v>
+      </c>
+      <c r="W4" s="4">
+        <v>4096</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4.7699999999999999E-4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.96954200000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>7.8907980000000002</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>69.330630999999997</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>521.42156</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="15">
         <f>$C$26</f>
         <v>80.356169600000001</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="15">
         <f>$E$10/L5</f>
         <v>0.90463135764002356</v>
       </c>
-      <c r="N5" s="17">
-        <f t="shared" ref="N5:N8" si="0">M5/K5*100</f>
+      <c r="N5" s="14">
+        <f>M5/K5*100</f>
         <v>45.23156788200118</v>
       </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>4.752E-4</v>
+      </c>
+      <c r="T5">
+        <v>0.97625439999999997</v>
+      </c>
+      <c r="U5">
+        <v>8.1267403999999992</v>
+      </c>
+      <c r="V5">
+        <v>72.692710799999986</v>
+      </c>
+      <c r="W5">
+        <v>524.43164999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>4.0499999999999998E-4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1.0077100000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>8.0670249999999992</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>76.302459999999996</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>539.31386599999996</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>4</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <f>$D$26</f>
         <v>40.386239600000003</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="15">
         <f>$E$10/L6</f>
         <v>1.7999375906243071</v>
       </c>
-      <c r="N6" s="17">
-        <f t="shared" si="0"/>
+      <c r="N6" s="14">
+        <f>M6/K6*100</f>
         <v>44.998439765607678</v>
       </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6">
+        <v>8.6019999999999988E-4</v>
+      </c>
+      <c r="T6">
+        <v>0.76988099999999993</v>
+      </c>
+      <c r="U6">
+        <v>5.3828607999999996</v>
+      </c>
+      <c r="V6">
+        <v>40.386239600000003</v>
+      </c>
+      <c r="W6">
+        <v>327.17152379999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4.0200000000000001E-4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.96542799999999995</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>7.9396110000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>74.344318000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>519.25171999999998</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>8</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <f>$E$26</f>
         <v>21.4589514</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="15">
         <f>$E$10/L7</f>
         <v>3.387523902962005</v>
       </c>
-      <c r="N7" s="17">
-        <f t="shared" si="0"/>
+      <c r="N7" s="14">
+        <f>M7/K7*100</f>
         <v>42.344048787025059</v>
       </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7">
+        <v>1.1142000000000001E-3</v>
+      </c>
+      <c r="T7">
+        <v>1.9196324</v>
+      </c>
+      <c r="U7">
+        <v>13.685116799999999</v>
+      </c>
+      <c r="V7">
+        <v>186.59671759999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4.0999999999999999E-4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.97143500000000005</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>7.9799179999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>73.877004999999997</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>513.83911799999998</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>16</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <f>$F$26</f>
         <v>13.0164084</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="15">
         <f>$E$10/L8</f>
         <v>5.5846980646366315</v>
       </c>
-      <c r="N8" s="17">
-        <f t="shared" si="0"/>
+      <c r="N8" s="14">
+        <f>M8/K8*100</f>
         <v>34.904362903978949</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>6.8199999999999999E-4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.96715700000000004</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>8.7563499999999994</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>69.609139999999996</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>528.33198600000003</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="17"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <f>AVERAGE(B5:B9)</f>
         <v>4.752E-4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f>AVERAGE(C5:C9)</f>
         <v>0.97625439999999997</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f>AVERAGE(D5:D9)</f>
         <v>8.1267403999999992</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f>AVERAGE(E5:E9)</f>
         <v>72.692710799999986</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f>AVERAGE(F5:F9)</f>
         <v>524.43164999999999</v>
       </c>
-      <c r="O10" s="11"/>
+      <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="K11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1037,560 +5149,647 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
-        <f>LOG(B5,2)</f>
+      <c r="B12" s="6">
+        <f t="shared" ref="B12:F16" si="0">LOG(B5,2)</f>
         <v>-11.033723113318663</v>
       </c>
-      <c r="C12" s="7">
-        <f>LOG(C5,2)</f>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
         <v>-4.4624698484879592E-2</v>
       </c>
-      <c r="D12" s="7">
-        <f>LOG(D5,2)</f>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
         <v>2.9801712080240832</v>
       </c>
-      <c r="E12" s="7">
-        <f>LOG(E5,2)</f>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
         <v>6.1154209858976643</v>
       </c>
-      <c r="F12" s="7">
-        <f>LOG(F5,2)</f>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
         <v>9.0263064271591453</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="11"/>
+      <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="7">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="7">
-        <f>LOG(B6,2)</f>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
         <v>-11.269790471552188</v>
       </c>
-      <c r="C13" s="7">
-        <f>LOG(C6,2)</f>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
         <v>1.1080518046897917E-2</v>
       </c>
-      <c r="D13" s="7">
-        <f>LOG(D6,2)</f>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
         <v>3.0120367269025801</v>
       </c>
-      <c r="E13" s="7">
-        <f>LOG(E6,2)</f>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
         <v>6.2536576653493885</v>
       </c>
-      <c r="F13" s="7">
-        <f>LOG(F6,2)</f>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
         <v>9.0749813164329023</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="13">
         <v>32</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="19">
         <f>$B$10</f>
         <v>4.752E-4</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="19">
         <f>$B$37</f>
         <v>8.6019999999999988E-4</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="15">
         <f>L13/M13</f>
         <v>0.55242966751918166</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="7">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="7">
-        <f>LOG(B7,2)</f>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
         <v>-11.280516878145246</v>
       </c>
-      <c r="C14" s="7">
-        <f>LOG(C7,2)</f>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
         <v>-5.07594254744856E-2</v>
       </c>
-      <c r="D14" s="7">
-        <f>LOG(D7,2)</f>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
         <v>2.9890683244817295</v>
       </c>
-      <c r="E14" s="7">
-        <f>LOG(E7,2)</f>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
         <v>6.2161505788399687</v>
       </c>
-      <c r="F14" s="7">
-        <f>LOG(F7,2)</f>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
         <v>9.0202902797206423</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="13">
         <v>512</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="19">
         <f>$C$10</f>
         <v>0.97625439999999997</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="19">
         <f>$C$37</f>
         <v>0.76988099999999993</v>
       </c>
-      <c r="N14" s="18">
-        <f t="shared" ref="N14:N17" si="1">L14/M14</f>
+      <c r="N14" s="15">
+        <f>L14/M14</f>
         <v>1.26805882987111</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="7">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
-        <f>LOG(B8,2)</f>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
         <v>-11.252088469818728</v>
       </c>
-      <c r="C15" s="7">
-        <f>LOG(C8,2)</f>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
         <v>-4.1810628479622872E-2</v>
       </c>
-      <c r="D15" s="7">
-        <f>LOG(D8,2)</f>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
         <v>2.9963739216855698</v>
       </c>
-      <c r="E15" s="7">
-        <f>LOG(E8,2)</f>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
         <v>6.2070534750242929</v>
       </c>
-      <c r="F15" s="7">
-        <f>LOG(F8,2)</f>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
         <v>9.0051729149616353</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="13">
         <v>1024</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="19">
         <f>$D$10</f>
         <v>8.1267403999999992</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="19">
         <f>$D$37</f>
         <v>5.3828607999999996</v>
       </c>
-      <c r="N15" s="18">
-        <f t="shared" si="1"/>
+      <c r="N15" s="15">
+        <f>L15/M15</f>
         <v>1.5097437407261209</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="7">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="7">
-        <f>LOG(B9,2)</f>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
         <v>-10.517940640300003</v>
       </c>
-      <c r="C16" s="7">
-        <f>LOG(C9,2)</f>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
         <v>-4.8177991394000259E-2</v>
       </c>
-      <c r="D16" s="7">
-        <f>LOG(D9,2)</f>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
         <v>3.1303296216240026</v>
       </c>
-      <c r="E16" s="7">
-        <f>LOG(E9,2)</f>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
         <v>6.1212048458885118</v>
       </c>
-      <c r="F16" s="7">
-        <f>LOG(F9,2)</f>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
         <v>9.0453009452010136</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="13">
         <v>2048</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="19">
         <f>$E$10</f>
         <v>72.692710799999986</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="19">
         <f>$E$37</f>
         <v>40.386239600000003</v>
       </c>
-      <c r="N16" s="18">
-        <f t="shared" si="1"/>
+      <c r="N16" s="15">
+        <f>L16/M16</f>
         <v>1.7999375906243071</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="K17" s="16">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="K17" s="13">
         <v>4096</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="19">
         <f>$F$10</f>
         <v>524.43164999999999</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="19">
         <f>$F$37</f>
         <v>327.17152379999999</v>
       </c>
-      <c r="N17" s="18">
-        <f t="shared" si="1"/>
+      <c r="N17" s="15">
+        <f>L17/M17</f>
         <v>1.6029257189283537</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>B19*1</f>
         <v>1</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <f>C19*1</f>
         <v>2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>4</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>8</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>16</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>158.75159099999999</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>80.363690000000005</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>40.630324999999999</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>21.450496999999999</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>12.993871</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>159.70820599999999</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>80.388464999999997</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>40.348857000000002</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>21.464516</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>12.95157</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="13">
         <v>1</v>
       </c>
-      <c r="L22" s="18" t="e">
+      <c r="L22" s="15" t="e">
         <f>$B$47</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="18" t="e">
+      <c r="M22" s="15" t="e">
         <f>$E$10/L22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="17" t="e">
+      <c r="N22" s="14" t="e">
         <f>M22/K22*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>158.73843099999999</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>80.275108000000003</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>40.351638999999999</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>21.47298</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>13.008058</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="13">
         <v>2</v>
       </c>
-      <c r="L23" s="18" t="e">
+      <c r="L23" s="15" t="e">
         <f>$C$47</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="18" t="e">
+      <c r="M23" s="15" t="e">
         <f>$E$10/L23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="17" t="e">
-        <f t="shared" ref="N23:N26" si="2">M23/K23*100</f>
+      <c r="N23" s="14" t="e">
+        <f>M23/K23*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>158.64897999999999</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>80.453914999999995</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>40.299123000000002</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>21.454592999999999</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>13.234920000000001</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="13">
         <v>4</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <f>$D$47</f>
         <v>186.59671759999998</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="15">
         <f>$E$10/L24</f>
         <v>0.3895712193385335</v>
       </c>
-      <c r="N24" s="17">
-        <f t="shared" si="2"/>
+      <c r="N24" s="14">
+        <f>M24/K24*100</f>
         <v>9.7392804834633377</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>5</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>158.58256399999999</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>80.299670000000006</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>40.301254</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>21.452171</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>12.893623</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="13">
         <v>8</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="15">
         <f>$E$47</f>
         <v>193.61652850000002</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="15">
         <f>$E$10/L25</f>
         <v>0.37544682452045919</v>
       </c>
-      <c r="N25" s="17">
-        <f t="shared" si="2"/>
+      <c r="N25" s="14">
+        <f>M25/K25*100</f>
         <v>4.6930853065057399</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <f>AVERAGE(B21:B25)</f>
         <v>158.8859544</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <f>AVERAGE(C21:C25)</f>
         <v>80.356169600000001</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <f>AVERAGE(D21:D25)</f>
         <v>40.386239600000003</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f>AVERAGE(E21:E25)</f>
         <v>21.4589514</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f>AVERAGE(F21:F25)</f>
         <v>13.0164084</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="13">
         <v>16</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="15">
         <f>$F$47</f>
         <v>142.86923100000001</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="15">
         <f>$E$10/L26</f>
         <v>0.50880592196930063</v>
       </c>
-      <c r="N26" s="17">
-        <f t="shared" si="2"/>
+      <c r="N26" s="14">
+        <f>M26/K26*100</f>
         <v>3.1800370123081292</v>
       </c>
+      <c r="S26">
+        <f>LOG(S4,2)</f>
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26:W26" si="1">LOG(T4,2)</f>
+        <v>9</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f>LOG(B26, 2)</f>
         <v>7.3118477851150736</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f>LOG(C21, 2)</f>
         <v>6.3284719036385129</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f>LOG(D21, 2)</f>
         <v>5.3444849995502111</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f>LOG(E21, 2)</f>
         <v>4.4229391697044314</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>LOG(F21, 2)</f>
         <v>3.6997593825289417</v>
       </c>
+      <c r="R27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27:W29" si="2">LOG(S5,2)</f>
+        <v>-11.039177543410771</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>-3.4670949359890194E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>3.0226768096524421</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>6.1837388012616605</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>9.0346109461203614</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B29" s="19" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>-10.183040248266888</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>-0.37729262827134225</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>2.428373117955096</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>5.3357919165165661</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>8.3539033749115692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="K29" s="22" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
+      <c r="R29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>-9.8097760635549598</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>0.94083006851309281</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>3.7745358427843629</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>7.5437797979158816</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="K30" s="23" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="K30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>32</v>
       </c>
@@ -1609,23 +5808,23 @@
       <c r="G31" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="13">
         <v>32</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="19">
         <f>$B$10</f>
         <v>4.752E-4</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="19">
         <f>$B$57</f>
         <v>1.1142000000000001E-3</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="15">
         <f>L31/M31</f>
         <v>0.42649434571890144</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1638,32 +5837,32 @@
       <c r="D32">
         <v>5.3920009999999996</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>40.630324999999999</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>321.57026300000001</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="13">
         <v>512</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="19">
         <f>$C$10</f>
         <v>0.97625439999999997</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="19">
         <f>$C$57</f>
         <v>1.9196324</v>
       </c>
-      <c r="N32" s="18">
-        <f t="shared" ref="N32:N35" si="3">L32/M32</f>
+      <c r="N32" s="15">
+        <f>L32/M32</f>
         <v>0.50856320199638216</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1676,29 +5875,29 @@
       <c r="D33">
         <v>5.3844079999999996</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>40.348857000000002</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>320.17403200000001</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="13">
         <v>1024</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="19">
         <f>$D$10</f>
         <v>8.1267403999999992</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="19">
         <f>$D$57</f>
         <v>13.685116799999999</v>
       </c>
-      <c r="N33" s="18">
-        <f t="shared" si="3"/>
+      <c r="N33" s="15">
+        <f>L33/M33</f>
         <v>0.59383785456621019</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1711,29 +5910,29 @@
       <c r="D34">
         <v>5.372458</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>40.351638999999999</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>334.60091199999999</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="13">
         <v>2048</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="19">
         <f>$E$10</f>
         <v>72.692710799999986</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="19">
         <f>$E$57</f>
         <v>186.59671759999998</v>
       </c>
-      <c r="N34" s="18">
-        <f t="shared" si="3"/>
+      <c r="N34" s="15">
+        <f>L34/M34</f>
         <v>0.3895712193385335</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1746,23 +5945,23 @@
       <c r="D35">
         <v>5.3846410000000002</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>40.299123000000002</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>333.49794500000002</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="13">
         <v>4096</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="19">
         <f>$F$10</f>
         <v>524.43164999999999</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1775,201 +5974,234 @@
       <c r="D36">
         <v>5.3807960000000001</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>40.301254</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>326.01446700000002</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="12">
         <f>AVERAGE(B32:B36)</f>
         <v>8.6019999999999988E-4</v>
       </c>
-      <c r="C37" s="15">
-        <f t="shared" ref="C37:F37" si="4">AVERAGE(C32:C36)</f>
+      <c r="C37" s="12">
+        <f>AVERAGE(C32:C36)</f>
         <v>0.76988099999999993</v>
       </c>
-      <c r="D37" s="15">
-        <f t="shared" si="4"/>
+      <c r="D37" s="12">
+        <f>AVERAGE(D32:D36)</f>
         <v>5.3828607999999996</v>
       </c>
-      <c r="E37" s="15">
-        <f t="shared" si="4"/>
+      <c r="E37" s="12">
+        <f>AVERAGE(E32:E36)</f>
         <v>40.386239600000003</v>
       </c>
-      <c r="F37" s="15">
-        <f t="shared" si="4"/>
+      <c r="F37" s="12">
+        <f>AVERAGE(F32:F36)</f>
         <v>327.17152379999999</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="11"/>
-      <c r="B39" s="19" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>4</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>4</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <f>B40*1</f>
         <v>1</v>
       </c>
-      <c r="C41" s="10">
-        <f t="shared" ref="C41" si="5">C40*1</f>
+      <c r="C41" s="9">
+        <f>C40*1</f>
         <v>2</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>4</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>8</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>1</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
         <v>188.09429</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>195.12563399999999</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>142.86923100000001</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>2</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6">
         <v>185.03022200000001</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>192.10742300000001</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A44" s="4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>3</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6">
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
         <v>190.33304100000001</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>4</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7">
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6">
         <v>183.23194000000001</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46" s="4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>5</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6">
         <v>186.294095</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="8" t="e">
+      <c r="B47" s="7" t="e">
         <f>AVERAGE(B42:B46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C47" s="8" t="e">
-        <f t="shared" ref="C47:F47" si="6">AVERAGE(C42:C46)</f>
+      <c r="C47" s="7" t="e">
+        <f>AVERAGE(C42:C46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D47" s="8">
-        <f t="shared" si="6"/>
+      <c r="D47" s="7">
+        <f>AVERAGE(D42:D46)</f>
         <v>186.59671759999998</v>
       </c>
-      <c r="E47" s="8">
-        <f t="shared" si="6"/>
+      <c r="E47" s="7">
+        <f>AVERAGE(E42:E46)</f>
         <v>193.61652850000002</v>
       </c>
-      <c r="F47" s="8">
-        <f t="shared" si="6"/>
+      <c r="F47" s="7">
+        <f>AVERAGE(F42:F46)</f>
         <v>142.86923100000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="19" t="s">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B49" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="R49" s="9">
+        <v>1</v>
+      </c>
+      <c r="S49" s="9">
+        <v>2</v>
+      </c>
+      <c r="T49" s="9">
+        <v>4</v>
+      </c>
+      <c r="U49" s="9">
+        <v>8</v>
+      </c>
+      <c r="V49" s="9">
+        <v>16</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="11"/>
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="Q50" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="7">
+        <v>158.8859544</v>
+      </c>
+      <c r="S50" s="7">
+        <v>80.356169600000001</v>
+      </c>
+      <c r="T50" s="7">
+        <v>40.386239600000003</v>
+      </c>
+      <c r="U50" s="8">
+        <v>21.4589514</v>
+      </c>
+      <c r="V50" s="7">
+        <v>13.0164084</v>
+      </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>32</v>
       </c>
@@ -1985,8 +6217,20 @@
       <c r="F51" s="2">
         <v>4096</v>
       </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51">
+        <v>186.59671759999998</v>
+      </c>
+      <c r="U51">
+        <v>193.61652850000002</v>
+      </c>
+      <c r="V51">
+        <v>142.86923100000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1999,12 +6243,12 @@
       <c r="D52">
         <v>13.93651</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>188.09429</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2017,12 +6261,12 @@
       <c r="D53">
         <v>13.74084</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>185.03022200000001</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2035,12 +6279,12 @@
       <c r="D54">
         <v>13.743335</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>190.33304100000001</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2053,12 +6297,12 @@
       <c r="D55">
         <v>13.533887</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>183.23194000000001</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2071,57 +6315,58 @@
       <c r="D56">
         <v>13.471012</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>186.294095</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="12">
         <f>AVERAGE(B52:B56)</f>
         <v>1.1142000000000001E-3</v>
       </c>
-      <c r="C57" s="15">
-        <f t="shared" ref="C57" si="7">AVERAGE(C52:C56)</f>
+      <c r="C57" s="12">
+        <f>AVERAGE(C52:C56)</f>
         <v>1.9196324</v>
       </c>
-      <c r="D57" s="15">
-        <f t="shared" ref="D57" si="8">AVERAGE(D52:D56)</f>
+      <c r="D57" s="12">
+        <f>AVERAGE(D52:D56)</f>
         <v>13.685116799999999</v>
       </c>
-      <c r="E57" s="15">
-        <f t="shared" ref="E57" si="9">AVERAGE(E52:E56)</f>
+      <c r="E57" s="12">
+        <f>AVERAGE(E52:E56)</f>
         <v>186.59671759999998</v>
       </c>
-      <c r="F57" s="15" t="e">
-        <f t="shared" ref="F57" si="10">AVERAGE(F52:F56)</f>
+      <c r="F57" s="12" t="e">
+        <f>AVERAGE(F52:F56)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B49:F49"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K20:N20"/>
     <mergeCell ref="K29:N29"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B49:F49"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="4">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>